--- a/biology/Botanique/Consortium_de_séquençage_du_génome_de_la_pomme_de_terre/Consortium_de_séquençage_du_génome_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Consortium_de_séquençage_du_génome_de_la_pomme_de_terre/Consortium_de_séquençage_du_génome_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Consortium_de_s%C3%A9quen%C3%A7age_du_g%C3%A9nome_de_la_pomme_de_terre</t>
+          <t>Consortium_de_séquençage_du_génome_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le consortium de séquençage du génome de la pomme de terre (PGSC, acronyme de Potato Genome Sequencing Consortium) est un consortium international ayant pour objectif le séquençage du génome de la pomme de terre (Solanum tuberosum L.).
-Ce consortium a été lancé en janvier 2006 à l'initiative du département de la sélection végétale de l'université de Wageningue. Il regroupait à l'origine 13 groupes de recherches provenant d'Argentine, Brésil, Chili, Chine, États-Unis, Inde, Irlande, Nouvelle-Zélande, Pays-Bas, Pologne, Pérou, Royaume-Uni et Russie[1].
-Le génome de la pomme de terre se compose de 12 chromosomes et sa taille est estimée à 840 millions de paires de bases. Le travail de séquençage a porté sur deux variétés diploïdes, RH89-039-16, variété diploïde hétézygote et DM1-3 516R44, variété homozygote (monoploïde doublée)[2].
+Ce consortium a été lancé en janvier 2006 à l'initiative du département de la sélection végétale de l'université de Wageningue. Il regroupait à l'origine 13 groupes de recherches provenant d'Argentine, Brésil, Chili, Chine, États-Unis, Inde, Irlande, Nouvelle-Zélande, Pays-Bas, Pologne, Pérou, Royaume-Uni et Russie.
+Le génome de la pomme de terre se compose de 12 chromosomes et sa taille est estimée à 840 millions de paires de bases. Le travail de séquençage a porté sur deux variétés diploïdes, RH89-039-16, variété diploïde hétézygote et DM1-3 516R44, variété homozygote (monoploïde doublée).
 La première ébauche de séquence du génome de la pomme de terre a été annoncée en 2011 dans la revue Nature.
-L'assemblage, qui couvre 95 % des gènes de la pomme de terre, est mis à la disposition des chercheurs dans le domaine public et publié sur le site du PGSC, www.potatogenome.net [3],[4].
+L'assemblage, qui couvre 95 % des gènes de la pomme de terre, est mis à la disposition des chercheurs dans le domaine public et publié sur le site du PGSC, www.potatogenome.net ,.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Consortium_de_s%C3%A9quen%C3%A7age_du_g%C3%A9nome_de_la_pomme_de_terre</t>
+          <t>Consortium_de_séquençage_du_génome_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le consortium de séquençage du génome de la pomme de terre regroupe des représentants de 17 instituts ou universités de 13 pays différents[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le consortium de séquençage du génome de la pomme de terre regroupe des représentants de 17 instituts ou universités de 13 pays différents :
  Argentine, Instituto Nacional de Tecnología Agropecuaria
  Chili, Instituto de Investigaciones Agropecuarias
  Chine
